--- a/Final Result/0614/Cora.xlsx
+++ b/Final Result/0614/Cora.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/0614/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E80644-A123-BC4C-90BB-E33A9117B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D639AB3A-8E37-6949-A15B-8AA9D49707A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{B8DE3A2A-C4FF-4D4C-B3BC-099AFCD86B15}"/>
+    <workbookView xWindow="46240" yWindow="2080" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{B8DE3A2A-C4FF-4D4C-B3BC-099AFCD86B15}"/>
   </bookViews>
   <sheets>
     <sheet name="核心子圖僅含邊" sheetId="1" r:id="rId1"/>
     <sheet name="核心子圖僅含特徵" sheetId="4" r:id="rId2"/>
-    <sheet name="核心子圖含邊, 特徵 (特徵相同)" sheetId="2" r:id="rId3"/>
-    <sheet name="核心子圖含邊,特徵 (特徵不同)" sheetId="3" r:id="rId4"/>
+    <sheet name="核心子圖含邊, 特徵 (每位user特徵相同)" sheetId="2" r:id="rId3"/>
+    <sheet name="核心子圖含邊,特徵 (每位user特徵不同)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69022C9E-F794-2740-B96D-C3B9E16F67EF}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44:Q73"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC93DF27-AA98-214A-AE66-1A3A61D7DABD}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A11" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3582,13 +3582,14 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>

--- a/Final Result/0614/Cora.xlsx
+++ b/Final Result/0614/Cora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/0614/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D639AB3A-8E37-6949-A15B-8AA9D49707A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08129AB0-8DF3-8F4E-8CAE-544D3D7098CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46240" yWindow="2080" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{B8DE3A2A-C4FF-4D4C-B3BC-099AFCD86B15}"/>
+    <workbookView xWindow="38400" yWindow="2080" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{B8DE3A2A-C4FF-4D4C-B3BC-099AFCD86B15}"/>
   </bookViews>
   <sheets>
     <sheet name="核心子圖僅含邊" sheetId="1" r:id="rId1"/>
@@ -344,6 +344,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,15 +361,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,24 +709,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="K1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -873,7 +873,7 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="32">
         <v>0.1</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -894,7 +894,7 @@
       <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="32">
         <v>0.1</v>
       </c>
       <c r="P5" s="12" t="s">
@@ -917,7 +917,7 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="14" t="s">
         <v>12</v>
       </c>
@@ -936,7 +936,7 @@
       <c r="N6" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="30"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="14" t="s">
         <v>12</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="N7" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="30"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="14" t="s">
         <v>12</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="N8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="N9" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="30"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="14" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="14" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="N11" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="30"/>
+      <c r="O11" s="33"/>
       <c r="P11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="N12" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="30"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="14" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="N13" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="14" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="14" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="N14" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="14" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="14" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="N15" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="30"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="14" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="14" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="N16" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="30"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="14" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="13" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="N17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="31"/>
+      <c r="O17" s="34"/>
       <c r="P17" s="13" t="s">
         <v>12</v>
       </c>
@@ -1389,24 +1389,24 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="12"/>
       <c r="G18" s="26"/>
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="32"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="K19" s="4"/>
-      <c r="O19" s="30"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
@@ -1414,11 +1414,11 @@
       <c r="A20" s="4"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="14"/>
       <c r="G20" s="25"/>
       <c r="K20" s="4"/>
-      <c r="O20" s="30"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
@@ -1426,91 +1426,91 @@
       <c r="A21" s="4"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
-      <c r="E21" s="30"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="14"/>
       <c r="G21" s="25"/>
       <c r="K21" s="4"/>
-      <c r="O21" s="30"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="K22" s="4"/>
-      <c r="O22" s="30"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="E23" s="30"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="K23" s="4"/>
-      <c r="O23" s="30"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="E24" s="30"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="K24" s="4"/>
-      <c r="O24" s="30"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="E25" s="30"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="K25" s="4"/>
-      <c r="O25" s="30"/>
+      <c r="O25" s="33"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="K26" s="4"/>
-      <c r="O26" s="30"/>
+      <c r="O26" s="33"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="K27" s="4"/>
-      <c r="O27" s="30"/>
+      <c r="O27" s="33"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="E28" s="30"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="K28" s="4"/>
-      <c r="O28" s="30"/>
+      <c r="O28" s="33"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="E29" s="30"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="K29" s="4"/>
-      <c r="O29" s="30"/>
+      <c r="O29" s="33"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
@@ -1519,14 +1519,14 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="31"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="14"/>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="32">
         <v>0.3</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -1564,7 +1564,7 @@
       <c r="N31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="32">
         <v>0.3</v>
       </c>
       <c r="P31" s="12" t="s">
@@ -1587,7 +1587,7 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="14" t="s">
         <v>12</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="N32" t="s">
         <v>12</v>
       </c>
-      <c r="O32" s="30"/>
+      <c r="O32" s="33"/>
       <c r="P32" s="14" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="14" t="s">
         <v>12</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="N33" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="30"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="14" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="14" t="s">
         <v>12</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="N34" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="30"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="14" t="s">
         <v>12</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="D35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="14" t="s">
         <v>12</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="N35" t="s">
         <v>12</v>
       </c>
-      <c r="O35" s="30"/>
+      <c r="O35" s="33"/>
       <c r="P35" s="14" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="14" t="s">
         <v>12</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="N36" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="30"/>
+      <c r="O36" s="33"/>
       <c r="P36" s="14" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="14" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="N37" t="s">
         <v>16</v>
       </c>
-      <c r="O37" s="30"/>
+      <c r="O37" s="33"/>
       <c r="P37" s="14" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="14" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="N38" t="s">
         <v>16</v>
       </c>
-      <c r="O38" s="30"/>
+      <c r="O38" s="33"/>
       <c r="P38" s="14" t="s">
         <v>12</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="14" t="s">
         <v>12</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="N39" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="30"/>
+      <c r="O39" s="33"/>
       <c r="P39" s="14" t="s">
         <v>12</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="14" t="s">
         <v>12</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="N40" t="s">
         <v>16</v>
       </c>
-      <c r="O40" s="30"/>
+      <c r="O40" s="33"/>
       <c r="P40" s="14" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="14" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="N41" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="30"/>
+      <c r="O41" s="33"/>
       <c r="P41" s="14" t="s">
         <v>12</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="30"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="14" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="N42" t="s">
         <v>16</v>
       </c>
-      <c r="O42" s="30"/>
+      <c r="O42" s="33"/>
       <c r="P42" s="14" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="13" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="N43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O43" s="31"/>
+      <c r="O43" s="34"/>
       <c r="P43" s="13" t="s">
         <v>12</v>
       </c>
@@ -2059,94 +2059,94 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="29"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="12"/>
       <c r="G44" s="26"/>
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="29"/>
+      <c r="O44" s="32"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="14"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="E45" s="30"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="K45" s="4"/>
-      <c r="O45" s="30"/>
+      <c r="O45" s="33"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="E46" s="30"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="K46" s="4"/>
-      <c r="O46" s="30"/>
+      <c r="O46" s="33"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="E47" s="30"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="K47" s="4"/>
-      <c r="O47" s="30"/>
+      <c r="O47" s="33"/>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="E48" s="30"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="K48" s="4"/>
-      <c r="O48" s="30"/>
+      <c r="O48" s="33"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="K49" s="4"/>
-      <c r="O49" s="30"/>
+      <c r="O49" s="33"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="E50" s="30"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="K50" s="4"/>
-      <c r="O50" s="30"/>
+      <c r="O50" s="33"/>
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="E51" s="30"/>
+      <c r="E51" s="33"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="K51" s="4"/>
-      <c r="O51" s="30"/>
+      <c r="O51" s="33"/>
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="E52" s="30"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="K52" s="4"/>
-      <c r="O52" s="30"/>
+      <c r="O52" s="33"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
@@ -2154,31 +2154,31 @@
       <c r="A53" s="4"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
-      <c r="E53" s="30"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="14"/>
       <c r="G53" s="25"/>
       <c r="K53" s="4"/>
-      <c r="O53" s="30"/>
+      <c r="O53" s="33"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="K54" s="4"/>
-      <c r="O54" s="30"/>
+      <c r="O54" s="33"/>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="E55" s="30"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="K55" s="4"/>
-      <c r="O55" s="30"/>
+      <c r="O55" s="33"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
@@ -2187,14 +2187,14 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="31"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="K56" s="6"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="31"/>
+      <c r="O56" s="34"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="14"/>
     </row>
@@ -2203,91 +2203,91 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="29"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="12"/>
       <c r="G57" s="26"/>
       <c r="K57" s="4"/>
-      <c r="O57" s="29"/>
+      <c r="O57" s="32"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="E58" s="30"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="K58" s="4"/>
-      <c r="O58" s="30"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="E59" s="30"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="K59" s="4"/>
-      <c r="O59" s="30"/>
+      <c r="O59" s="33"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="E60" s="30"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="K60" s="4"/>
-      <c r="O60" s="30"/>
+      <c r="O60" s="33"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="E61" s="30"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="K61" s="4"/>
-      <c r="O61" s="30"/>
+      <c r="O61" s="33"/>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="E62" s="30"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="K62" s="4"/>
-      <c r="O62" s="30"/>
+      <c r="O62" s="33"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="E63" s="30"/>
+      <c r="E63" s="33"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="K63" s="4"/>
-      <c r="O63" s="30"/>
+      <c r="O63" s="33"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="E64" s="30"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="K64" s="4"/>
-      <c r="O64" s="30"/>
+      <c r="O64" s="33"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="E65" s="30"/>
+      <c r="E65" s="33"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="K65" s="4"/>
-      <c r="O65" s="30"/>
+      <c r="O65" s="33"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
@@ -2295,31 +2295,31 @@
       <c r="A66" s="4"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
-      <c r="E66" s="30"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="14"/>
       <c r="G66" s="25"/>
       <c r="K66" s="4"/>
-      <c r="O66" s="30"/>
+      <c r="O66" s="33"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="E67" s="30"/>
+      <c r="E67" s="33"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="K67" s="4"/>
-      <c r="O67" s="30"/>
+      <c r="O67" s="33"/>
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="E68" s="30"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="K68" s="4"/>
-      <c r="O68" s="30"/>
+      <c r="O68" s="33"/>
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
@@ -2328,14 +2328,14 @@
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="31"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
       <c r="K69" s="6"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="31"/>
+      <c r="O69" s="34"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="14"/>
     </row>
@@ -2449,11 +2449,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="E5:E17"/>
-    <mergeCell ref="O5:O17"/>
-    <mergeCell ref="O18:O30"/>
     <mergeCell ref="O31:O43"/>
     <mergeCell ref="O44:O56"/>
     <mergeCell ref="O57:O69"/>
@@ -2461,6 +2456,11 @@
     <mergeCell ref="E31:E43"/>
     <mergeCell ref="E44:E56"/>
     <mergeCell ref="E57:E69"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="E5:E17"/>
+    <mergeCell ref="O5:O17"/>
+    <mergeCell ref="O18:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2484,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC93DF27-AA98-214A-AE66-1A3A61D7DABD}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="118" workbookViewId="0">
+    <sheetView zoomScale="118" workbookViewId="0">
       <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
@@ -2597,10 +2597,10 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="32">
         <v>0.2</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="32">
         <v>0.1</v>
       </c>
       <c r="G5" s="3"/>
@@ -2621,8 +2621,8 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2643,8 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
@@ -2665,8 +2665,8 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2687,8 +2687,8 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
@@ -2709,8 +2709,8 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="5"/>
       <c r="H10" s="14">
         <v>0.87084870848708484</v>
@@ -2729,8 +2729,8 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="5"/>
       <c r="H11" s="14">
         <v>0.87453874538745391</v>
@@ -2749,8 +2749,8 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="5"/>
       <c r="H12" s="14">
         <v>0.89667896678966785</v>
@@ -2769,8 +2769,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="5"/>
       <c r="H13" s="14">
         <v>0.88929889298892983</v>
@@ -2789,8 +2789,8 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="5"/>
       <c r="H14" s="14">
         <v>0.86715867158671589</v>
@@ -2809,8 +2809,8 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="5"/>
       <c r="H15" s="14">
         <v>0.88560885608856088</v>
@@ -2829,8 +2829,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="5"/>
       <c r="H16" s="14">
         <v>0.87453874538745391</v>
@@ -2849,8 +2849,8 @@
       <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="8"/>
       <c r="H17" s="14">
         <v>0.87822878228782286</v>
@@ -2869,8 +2869,8 @@
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2891,8 +2891,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="5" t="s">
         <v>25</v>
       </c>
@@ -2913,8 +2913,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="28" t="s">
         <v>25</v>
       </c>
@@ -2935,8 +2935,8 @@
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="8" t="s">
         <v>25</v>
       </c>
@@ -2949,64 +2949,64 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="3"/>
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="5"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="5"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="5"/>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="5"/>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="5"/>
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="5"/>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="5"/>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="5"/>
       <c r="H30" s="14"/>
     </row>
@@ -3014,29 +3014,29 @@
       <c r="A31" s="4"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="5"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="5"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="5"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="5"/>
       <c r="H34" s="14"/>
     </row>
@@ -3045,22 +3045,22 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="3"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="5"/>
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="5"/>
       <c r="H37" s="14"/>
     </row>
@@ -3069,8 +3069,8 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="8"/>
       <c r="H38" s="13"/>
     </row>
@@ -3087,10 +3087,10 @@
       <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="32">
         <v>0.2</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="32">
         <v>0.3</v>
       </c>
       <c r="G39" s="3"/>
@@ -3111,8 +3111,8 @@
       <c r="D40" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="5" t="s">
         <v>25</v>
       </c>
@@ -3133,8 +3133,8 @@
       <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="5" t="s">
         <v>25</v>
       </c>
@@ -3155,8 +3155,8 @@
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="5" t="s">
         <v>25</v>
       </c>
@@ -3177,8 +3177,8 @@
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="5" t="s">
         <v>25</v>
       </c>
@@ -3199,8 +3199,8 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="5"/>
       <c r="H44" s="14">
         <v>0.87822878228782286</v>
@@ -3219,8 +3219,8 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="5"/>
       <c r="H45" s="14">
         <v>0.87822878228782286</v>
@@ -3239,8 +3239,8 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
       <c r="G46" s="5"/>
       <c r="H46" s="14">
         <v>0.89667896678966785</v>
@@ -3259,8 +3259,8 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
       <c r="G47" s="5"/>
       <c r="H47" s="14">
         <v>0.88560885608856088</v>
@@ -3279,8 +3279,8 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="5"/>
       <c r="H48" s="14">
         <v>0.87084870848708484</v>
@@ -3299,8 +3299,8 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="5"/>
       <c r="H49" s="14">
         <v>0.87084870848708484</v>
@@ -3319,8 +3319,8 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="5"/>
       <c r="H50" s="14">
         <v>0.87822878228782286</v>
@@ -3339,8 +3339,8 @@
       <c r="D51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="8"/>
       <c r="H51" s="13">
         <v>0.87084870848708484</v>
@@ -3359,8 +3359,8 @@
       <c r="D52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="3" t="s">
         <v>25</v>
       </c>
@@ -3381,8 +3381,8 @@
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="5" t="s">
         <v>25</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
       <c r="G54" s="28" t="s">
         <v>25</v>
       </c>
@@ -3425,8 +3425,8 @@
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
       <c r="G55" s="8" t="s">
         <v>25</v>
       </c>
@@ -3436,64 +3436,64 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="5"/>
       <c r="H56" s="27"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="5"/>
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="5"/>
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
       <c r="G59" s="5"/>
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="5"/>
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="5"/>
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="5"/>
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="5"/>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="5"/>
       <c r="H64" s="14"/>
     </row>
@@ -3501,22 +3501,22 @@
       <c r="A65" s="4"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="5"/>
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
       <c r="G66" s="5"/>
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
       <c r="G67" s="5"/>
       <c r="H67" s="14"/>
     </row>
@@ -3525,29 +3525,29 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="8"/>
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="5"/>
       <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="5"/>
       <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="5"/>
       <c r="H71" s="14"/>
     </row>
@@ -3556,8 +3556,8 @@
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
       <c r="G72" s="8"/>
       <c r="H72" s="13"/>
     </row>
@@ -3582,7 +3582,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3693,10 +3693,10 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="32">
         <v>0.2</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="32">
         <v>0.1</v>
       </c>
       <c r="G5" s="15"/>
@@ -3717,8 +3717,8 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
@@ -3739,8 +3739,8 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
@@ -3761,8 +3761,8 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
@@ -3783,8 +3783,8 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
@@ -3805,8 +3805,8 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="15"/>
       <c r="H10" s="14">
         <v>0.88560885608856088</v>
@@ -3825,8 +3825,8 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="15"/>
       <c r="H11" s="14">
         <v>0.87453874538745391</v>
@@ -3845,8 +3845,8 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="15"/>
       <c r="H12" s="14">
         <v>0.8929889298892989</v>
@@ -3865,8 +3865,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="15"/>
       <c r="H13" s="14">
         <v>0.88560885608856088</v>
@@ -3885,8 +3885,8 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="15"/>
       <c r="H14" s="14">
         <v>0.63837638376383765</v>
@@ -3905,8 +3905,8 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="15"/>
       <c r="H15" s="25">
         <v>0.44649446494464939</v>
@@ -3925,8 +3925,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="15"/>
       <c r="H16" s="14">
         <v>0.56088560885608851</v>
@@ -3945,8 +3945,8 @@
       <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="17"/>
       <c r="H17" s="13">
         <v>0.6789667896678967</v>
@@ -3965,8 +3965,8 @@
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="16" t="s">
         <v>25</v>
       </c>
@@ -3987,8 +3987,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
@@ -4009,8 +4009,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="15" t="s">
         <v>25</v>
       </c>
@@ -4031,8 +4031,8 @@
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="17" t="s">
         <v>25</v>
       </c>
@@ -4045,71 +4045,71 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="15"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="15"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="15"/>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="15"/>
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="15"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="15"/>
       <c r="H31" s="14"/>
     </row>
@@ -4117,15 +4117,15 @@
       <c r="A32" s="4"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="15"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="15"/>
       <c r="H33" s="14"/>
     </row>
@@ -4134,8 +4134,8 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="17"/>
       <c r="H34" s="13"/>
     </row>
@@ -4144,22 +4144,22 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="16"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="15"/>
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="15"/>
       <c r="H37" s="14"/>
     </row>
@@ -4168,8 +4168,8 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="17"/>
       <c r="H38" s="13"/>
     </row>
@@ -4186,10 +4186,10 @@
       <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="32">
         <v>0.2</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="32">
         <v>0.3</v>
       </c>
       <c r="G39" s="16"/>
@@ -4210,8 +4210,8 @@
       <c r="D40" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="15" t="s">
         <v>25</v>
       </c>
@@ -4232,8 +4232,8 @@
       <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="15" t="s">
         <v>25</v>
       </c>
@@ -4254,8 +4254,8 @@
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="15" t="s">
         <v>25</v>
       </c>
@@ -4276,8 +4276,8 @@
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="15" t="s">
         <v>25</v>
       </c>
@@ -4298,8 +4298,8 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="15"/>
       <c r="H44" s="14">
         <v>0.88560885608856088</v>
@@ -4318,8 +4318,8 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="15"/>
       <c r="H45" s="14">
         <v>0.88929889298892983</v>
@@ -4338,8 +4338,8 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
       <c r="G46" s="15"/>
       <c r="H46" s="14">
         <v>0.90036900369003692</v>
@@ -4358,8 +4358,8 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
       <c r="G47" s="15"/>
       <c r="H47" s="14">
         <v>0.88929889298892983</v>
@@ -4378,8 +4378,8 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="15"/>
       <c r="H48" s="14">
         <v>0.65313653136531369</v>
@@ -4398,8 +4398,8 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="15"/>
       <c r="H49" s="25">
         <v>0.45387453874538752</v>
@@ -4418,8 +4418,8 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="15"/>
       <c r="H50" s="14">
         <v>0.55719557195571956</v>
@@ -4438,8 +4438,8 @@
       <c r="D51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="17"/>
       <c r="H51" s="13">
         <v>0.66789667896678961</v>
@@ -4458,8 +4458,8 @@
       <c r="D52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="16" t="s">
         <v>25</v>
       </c>
@@ -4480,8 +4480,8 @@
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="15" t="s">
         <v>25</v>
       </c>
@@ -4502,8 +4502,8 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
       <c r="G54" s="15" t="s">
         <v>25</v>
       </c>
@@ -4524,8 +4524,8 @@
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
       <c r="G55" s="17" t="s">
         <v>25</v>
       </c>
@@ -4538,71 +4538,71 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="16"/>
       <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="15"/>
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="15"/>
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
       <c r="G59" s="15"/>
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="15"/>
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="15"/>
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="15"/>
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="15"/>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="15"/>
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="15"/>
       <c r="H65" s="14"/>
     </row>
@@ -4610,15 +4610,15 @@
       <c r="A66" s="4"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
       <c r="G66" s="15"/>
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
       <c r="G67" s="15"/>
       <c r="H67" s="14"/>
     </row>
@@ -4627,8 +4627,8 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="17"/>
       <c r="H68" s="13"/>
     </row>
@@ -4637,22 +4637,22 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="16"/>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="15"/>
       <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="15"/>
       <c r="H71" s="14"/>
     </row>
@@ -4661,8 +4661,8 @@
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
       <c r="G72" s="17"/>
       <c r="H72" s="13"/>
     </row>
